--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -37,13 +37,17 @@
   </si>
   <si>
     <t>Test@123</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,8 +421,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -445,11 +449,13 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
